--- a/deal/new_end_list.xlsx
+++ b/deal/new_end_list.xlsx
@@ -4699,7 +4699,7 @@
         <v>276</v>
       </c>
       <c r="D159" t="n">
-        <v>697</v>
+        <v>713</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>697</v>
+        <v>713</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5469,7 +5469,7 @@
         <v>365</v>
       </c>
       <c r="D214" t="n">
-        <v>4882</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7135,7 +7135,7 @@
         <v>558</v>
       </c>
       <c r="D333" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7149,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="D334" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="335" spans="1:4">
